--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_15_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_15_20.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>353082.2632988913</v>
+        <v>358801.0126385714</v>
       </c>
     </row>
     <row r="7">
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K14" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L14" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M14" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P14" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q14" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K15" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q15" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,22 +9085,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L16" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M16" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N16" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O16" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P16" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K17" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L17" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M17" t="n">
         <v>4.586202945486093</v>
@@ -9176,13 +9176,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P17" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q17" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9243,7 +9243,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K18" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,10 +9258,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q18" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9322,16 +9322,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L19" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M19" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N19" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O19" t="n">
         <v>56.93882853040725</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>69.10542099048568</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S14" t="n">
         <v>179.7218745449422</v>
@@ -23674,7 +23674,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J16" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,7 +23695,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.86903925848996</v>
+        <v>37.86903925848995</v>
       </c>
       <c r="R16" t="n">
         <v>151.3616578248528</v>
@@ -23932,7 +23932,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R19" t="n">
         <v>151.3616578248528</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>78415.13645459566</v>
+        <v>76556.04900668241</v>
       </c>
       <c r="C4" t="n">
-        <v>37171.47792200944</v>
+        <v>36290.20638248714</v>
       </c>
       <c r="D4" t="n">
-        <v>29335.74353511573</v>
+        <v>28640.24372414601</v>
       </c>
       <c r="E4" t="n">
-        <v>18603.91419674845</v>
+        <v>18162.84752353981</v>
       </c>
       <c r="F4" t="n">
-        <v>18603.91419674846</v>
+        <v>18162.84752353981</v>
       </c>
       <c r="G4" t="n">
-        <v>18603.91419674845</v>
+        <v>18162.84752353982</v>
       </c>
       <c r="H4" t="n">
-        <v>18603.91419674845</v>
+        <v>18162.84752353981</v>
       </c>
       <c r="I4" t="n">
-        <v>18603.91419674845</v>
+        <v>18162.84752353981</v>
       </c>
       <c r="J4" t="n">
-        <v>18603.91419674845</v>
+        <v>18162.84752353981</v>
       </c>
       <c r="K4" t="n">
-        <v>18603.91419674845</v>
+        <v>18162.84752353981</v>
       </c>
       <c r="L4" t="n">
-        <v>18603.91419674845</v>
+        <v>18162.84752353981</v>
       </c>
       <c r="M4" t="n">
-        <v>18603.91419674845</v>
+        <v>18162.84752353981</v>
       </c>
       <c r="N4" t="n">
-        <v>18603.91419674845</v>
+        <v>18162.84752353981</v>
       </c>
       <c r="O4" t="n">
-        <v>18603.91419674845</v>
+        <v>18162.84752353981</v>
       </c>
       <c r="P4" t="n">
-        <v>18603.91419674845</v>
+        <v>18162.84752353981</v>
       </c>
     </row>
     <row r="5">
@@ -26479,10 +26479,10 @@
         <v>6972.10256325733</v>
       </c>
       <c r="F5" t="n">
+        <v>6972.10256325733</v>
+      </c>
+      <c r="G5" t="n">
         <v>6972.102563257328</v>
-      </c>
-      <c r="G5" t="n">
-        <v>6972.10256325733</v>
       </c>
       <c r="H5" t="n">
         <v>6972.10256325733</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25615.26397935607</v>
+        <v>-23756.17653144286</v>
       </c>
       <c r="C6" t="n">
-        <v>-140690.9884326549</v>
+        <v>-139809.7168931326</v>
       </c>
       <c r="D6" t="n">
-        <v>15758.87722674609</v>
+        <v>16454.37703771581</v>
       </c>
       <c r="E6" t="n">
-        <v>46556.96005463598</v>
+        <v>46998.02672784461</v>
       </c>
       <c r="F6" t="n">
-        <v>93977.68232191011</v>
+        <v>94418.74899511876</v>
       </c>
       <c r="G6" t="n">
-        <v>93977.68232191014</v>
+        <v>94418.74899511877</v>
       </c>
       <c r="H6" t="n">
-        <v>93977.68232191015</v>
+        <v>94418.74899511879</v>
       </c>
       <c r="I6" t="n">
-        <v>93977.68232191014</v>
+        <v>94418.74899511879</v>
       </c>
       <c r="J6" t="n">
-        <v>93977.68232191015</v>
+        <v>94418.74899511879</v>
       </c>
       <c r="K6" t="n">
-        <v>93977.68232191014</v>
+        <v>94418.74899511879</v>
       </c>
       <c r="L6" t="n">
-        <v>93977.68232191015</v>
+        <v>94418.74899511879</v>
       </c>
       <c r="M6" t="n">
-        <v>93977.68232191014</v>
+        <v>94418.74899511877</v>
       </c>
       <c r="N6" t="n">
-        <v>93977.68232191015</v>
+        <v>94418.74899511876</v>
       </c>
       <c r="O6" t="n">
-        <v>93977.68232191014</v>
+        <v>94418.74899511877</v>
       </c>
       <c r="P6" t="n">
-        <v>93977.68232191015</v>
+        <v>94418.7489951188</v>
       </c>
     </row>
   </sheetData>
@@ -31993,16 +31993,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I14" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J14" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K14" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L14" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M14" t="n">
         <v>225.7600302817866</v>
@@ -32020,13 +32020,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R14" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S14" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T14" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U14" t="n">
         <v>0.1028570752958528</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H15" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I15" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J15" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K15" t="n">
         <v>111.0835641645513</v>
@@ -32093,22 +32093,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R15" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S15" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T15" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,37 +32145,37 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H16" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I16" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J16" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K16" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L16" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M16" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N16" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O16" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P16" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R16" t="n">
         <v>25.93173355231669</v>
@@ -32230,7 +32230,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I17" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J17" t="n">
         <v>109.1233211798925</v>
@@ -32239,7 +32239,7 @@
         <v>163.5475711458106</v>
       </c>
       <c r="L17" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M17" t="n">
         <v>225.7600302817866</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H18" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I18" t="n">
         <v>23.68487325669467</v>
@@ -32330,13 +32330,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q18" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R18" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S18" t="n">
         <v>12.77776283338877</v>
@@ -32345,7 +32345,7 @@
         <v>2.772789620751897</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,7 +32382,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H19" t="n">
         <v>5.127625437558785</v>
@@ -32394,16 +32394,16 @@
         <v>40.77458387310291</v>
       </c>
       <c r="K19" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L19" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M19" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N19" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O19" t="n">
         <v>81.51770992143554</v>
@@ -32412,7 +32412,7 @@
         <v>69.75248345734356</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R19" t="n">
         <v>25.93173355231669</v>
